--- a/stash/output.xlsx
+++ b/stash/output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet_title" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <name val="Aptos"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,65 +438,4834 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Leaf Color</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Height</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Discipline</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Att</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Days Open</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maple</t>
+          <t>10732282</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>549</v>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" s="2" t="n">
+        <v>45384.49375</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Page 927-934 and 944-951, Room Information Entered Values
+Please provide justification why the People Based Rates are 0.0 cfm/person and the Area Based Rate are 0.0 cfm/ft2.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>509</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Oak</t>
+          <t>10732362</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>783</v>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" s="2" t="n">
+        <v>45384.57430555556</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Please call out what kinds of piping on P-100, for examples SS, R,...etc.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pine</t>
+          <t>10732364</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1204</v>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" s="2" t="n">
+        <v>45384.57569444444</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(1) Radon piping is shown on P-130; however, the radon risers are missing on P-131B to P-131D. Please correct.
+(2) Please add radon piping to the symbol and abbreviation on P-001.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10734405</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" s="2" t="n">
+        <v>45385.45208333333</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Mothers Room 207 on the 2nd floor near Grid 3C is missing supply and return conditioned air.
+Please correct.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10734477</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" s="2" t="n">
+        <v>45385.47222222222</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>The door of Mothers Room 207 on the 2nd floor near Grid 3C is missing in the architectural background in some mechanical plans.
+Please correct.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10736714</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" s="2" t="n">
+        <v>45386.39861111111</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Paint Booth 119C near Grid 4B is missing the exhaust and makeup air. Moreover, it is mentioned in the air balance calculation on Page 863 of 1702 in P530 AIMF_DESIGN ANALYSIS_20240401.pdf that "Paint booth will have a designated EF with make up air unit to operate independently of bldg. HVAC."
+If the required information for sizing and selecting the equipment will be available after the 35% Concept Design, please state that in the drawing with a keynote. Otherwise please provide the exhaust and makeup air to the space.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10736770</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" s="2" t="n">
+        <v>45386.43263888889</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>P530 AIMF_DESIGN ANALYSIS_20240401.pdf, Page 1124 of 1702,
+please see attached to remove one of the duplicate paragraphs.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10736813</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" s="2" t="n">
+        <v>45386.49027777778</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>P530 AIMF_DESIGN ANALYSIS_20240401.pdf, Page 1127 of 1702, in Section 9.7, it was mentioned that "forced ducted exhaust will be provided" for radon mitigation; however, can't find the radon exhaust fans on plans. Please correct.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10736816</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" s="2" t="n">
+        <v>45386.49652777778</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>On plans the point-of-use water heaters are called WH-1; however, the schedule shows it as WH2.
+Please reconcile.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10736892</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" s="2" t="n">
+        <v>45386.56388888889</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>P530 AIMF_DESIGN ANALYSIS_20240401.pdf, Page 1141 of 1702, there is a discrepancy of the usage (in minutes) of the service sink in the list vs. the table. Please see attached and correct.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10739106</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" s="2" t="n">
+        <v>45387.59236111111</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>A few sanitary sewer drain pipes are shown encased longitudinally in structural foundation elements. Please see attached for reference.
+Please coordinate with structural engineer to provide section views.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10742631</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" s="2" t="n">
+        <v>45390.40694444445</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>EQUIPMENT NOTES, #2 says "PROVIDE 200mm (4") HIGH, CONCRETE HOUSEKEEPING PAD UNDER ALL FLOOR MOUNTED WATER HEATERS AND EQUIPMENT REQUIRING HOUSEKEEPING PADS. SEE STRUCTURAL FOR PAD REQUIREMENTS AND DETAILS."
+Please revise the note from 200mm (4") to 150mm (6"), and coordinate with structural engineer to update the detail.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10742655</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" s="2" t="n">
+        <v>45390.42083333333</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No need to repeat the GENERAL SHEET NOTES on P-100A to P131D. Please move them to P-001.
+Sheet note should be specific to the sheet.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10742672</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" s="2" t="n">
+        <v>45390.45694444444</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Padmount XFMR catalog sheet noted that "Basis of Design Only. Final product shall be equivalent Japanese standard manufacturer product".
+However, typical Japanese manufacturers do not produce transformer units similar to pad mounts.
+Please be submit Japanese product catalog sheet.
+For switchgear for 13.8kV, JIS-C-62271-200 or JME1425 is the Japanese standard for manufacturing.
+JIS-C-4620 is for 6.6kV and should not be used as a reference.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10742675</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" s="2" t="n">
+        <v>45390.46944444445</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Please provide justification to locate the potable water backflow preventer and 100mm radon riser in FIRE PROTECTION 122 instead of MECHANICAL 123.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10742677</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" s="2" t="n">
+        <v>45390.47430555556</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Provide home run symbol in the lighting and power plan drawings
+Wiring already provided to several elec drawings.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10742708</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" s="2" t="n">
+        <v>45390.53263888889</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>There is no hazardous area notes in the general notes.
+This facility included that RM119 paint room area and RM120B O2RM (See GI101 Occupant Load chart).
+Please refer to the design analysis 14.6.2.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10742722</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" s="2" t="n">
+        <v>45390.55555555555</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>These 3 details seem to describe the same compressed air connection station. Please reconcile and show only one detail.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>10742737</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" s="2" t="n">
+        <v>45390.56388888889</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>PLUMBING FIXTURE SCHEDULE, please change ADA COMPLIANT TO ABA COMPLIANT in the table header.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10742739</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" s="2" t="n">
+        <v>45390.56458333333</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>The main service feeder and FP feeder lines are drawn passing straight under the building from the 300kVA padmounted XFMR to the Elec RM and FP RM, but from an operational and maintenance standpoint. We recommend more functional method to run them from outside the building and provide a handhole in the middle.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10742740</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" s="2" t="n">
+        <v>45390.58055555556</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>RM122 Fire Protection RM (Fire Pump Room),  accordance with NFPA20,4.14.5, the emergency lighting shall be capable of maintaining the lighting level for a minimum of 2 hours and the intensity of illumination in the pump room(s) shall be 3.0 ft-candles (32.3 lux).</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10742759</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" s="2" t="n">
+        <v>45390.60694444444</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Please justify locating CU-1 so far away from CU-2 and CU-3. A single concrete equipment could be use for all 3 CU's if they are at the same location.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10744999</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" s="2" t="n">
+        <v>45391.43541666667</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>(1) Please justify the hugely oversized chilled and hot water coils in AHU-1, AHU-2, and AHU-3.
+(2) Please explain how the EWT (13.9 C) at the chiller become lower than the LWT (14.0 C) at the AHU's.
+Please see attached for reference.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10746810</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" s="2" t="n">
+        <v>45392.28055555555</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>For Pad-Mounted XFMR, in Kadena Design Guide 15.4.8(C)(5), KAB 18 CES/CEOFE had indicated a preference for Envirotemp FR3 dielectric flid in their pad-mounted XFMR.
+Drawing EP601 K1 and K8 do not describe this less-flammable type specification, but please confirm with KAB Navy or CES user about the insulating oil type for transformers.
+Please confirm the spec 26.12.19.10.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>10746877</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" s="2" t="n">
+        <v>45392.33402777778</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>M-601 shows exhaust fans and VAV boxes in 277V/1ph and other equipment in 480V/3ph.
+277V and 480V are not commonly provided in Japan so local equipment manufacturers usually do not make equipment in 277V or 480V. Japanese standard voltages are 100/200/400V.
+Please propose solutions and prepare to discuss in OBR meeting.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>10746894</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" s="2" t="n">
+        <v>45392.34861111111</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Please remove the brand specify information in the AHU/DOAS schedule.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10746913</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" s="2" t="n">
+        <v>45392.36805555555</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Accordance with UFC3-550-01,16.3.3 &amp; 5-3.1(CHAPTER 5 NAVY SPECIFIC REQUIREMENTS) Pathway or KDG16.3.3 Duct Lines, A 3-cell fabric mesh inner duct is considered necessary for communication cable conduit for exterior pathway.
+Although there is no description of innerduct spec in the drawings, please confirm with base comm office and consider installing the innerduct.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10746927</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ryuji Yamagami</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" s="2" t="n">
+        <v>45392.37847222222</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>The data on the cost of generator sets is not very good, so please get a vendor quote and use it. Please also provide the cost estimates.?</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10747009</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" s="2" t="n">
+        <v>45392.45208333333</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[Nominal voltage issues when using Japanese electrical motorized equipment]
+E-601 main XFMR provided voltage rate 480/277V 3P4W and M-601 Mechanical Schedule provided also voltage rate accordance with 480/277V.
+One concerning that if Japanese motorized equipment install to the facility, typical JPN products do not covered the 480/277V, but they produced general used only 415/240V or 460/245V in Japan.
+When procuring Japanese products, we believe that sufficient confirmation and coordination with the base side and mechanical engineers is necessary.
+Please discuss at OBR at an early stage how to proceed with this plan.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10747151</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" s="2" t="n">
+        <v>45392.57291666666</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Please revise the callout in Detail A12 to not show the brand information (KAESER MODEL KCF-50).</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>10747160</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" s="2" t="n">
+        <v>45392.58819444444</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>(1) Please remove "COMPRESSED AIR AND" from the Detail title C1 on P-130 and revise the block title accordingly. Please see attached for reference.
+(2) Please provide an overall plan for the compressed air system.
+(3) Please provide enlarged plan and section views of the air the compressor room near Grid 4E.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10747190</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" s="2" t="n">
+        <v>45392.62916666667</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>The performance of HWP-1 and HWP-2 in the design analysis (Page 984 of 1702) do not match the ones in the schedule on M-601.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10749494</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" s="2" t="n">
+        <v>45393.39652777778</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>In the AHUs/DOAS Schedule, the supply fan airflows of AHU-1, AHU-2, and DOAS-1 match the Actual Airflows in the cutsheets; however, the supply fan airflow of AHU-3 does not--Standard Airflow is shown instead in the schedule.
+Please correct.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>10749536</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" s="2" t="n">
+        <v>45393.41597222222</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Please provide section views for the mechanical rooms.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10749567</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" s="2" t="n">
+        <v>45393.43055555555</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>A round gravity intake ventilator (IV-1) is included on Page 1062 of 1702 in the Design Analysis; however, it is not tagged on MH102D (near Grid 2.7G).
+Please tag the ventilator and provide a schedule on M-601.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10752222</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" s="2" t="n">
+        <v>45394.48194444444</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Provide general telecom related outlets and equipment on the drawings. And also provide general sheets notes and keynotes information to the plans.
+There are no information about general telecom outlet and other equipment location plan in the drawings.
+Avoid providing blank sheets.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10752225</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" s="2" t="n">
+        <v>45394.48472222222</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Add 15% spare load to the load estimate sheet.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>10752227</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Ayako Fuchino</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" s="2" t="n">
+        <v>45394.49097222222</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>This is the same comment as comment status ID: 10658915 (Concept Design Review).
+The Note box of the Labor tab, the source is written as the Sekisan Shiryo 2016. We recommend using the latest version.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10752233</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" s="2" t="n">
+        <v>45394.54027777778</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Please provide the plans, design analysis and design drawings required for each phase of the design plan according to JED's design guide.
+A clipping of the latest JED Design Guide is attached for your reference.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>10752384</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Joel Reyes</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" s="2" t="n">
+        <v>45394.74305555555</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>What is the purpose of the tie beams that run diagonally between B/1 &amp; C/2, C/2 &amp; D/1, E/1 &amp; F/2, and F/2 &amp; H/1? 
+Are these intended to be seismic ties? Are the tie beams and grade beams parallel to the grid lines insufficient to restrain the pile cap?</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>10752385</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Joel Reyes</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" s="2" t="n">
+        <v>45394.74513888889</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Multiple pile caps are now shown with ties in only 
+ one direction. Will the reinforcing in the slab be designed to provide restraint?</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10752390</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Structural</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Joel Reyes</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" s="2" t="n">
+        <v>45394.77430555555</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Currently, the drawings show the construction sequence as the walls being constructed to full height. Then the soil is backfilled, recompacted, and the slab-on-grade poured. With the amount of rooms, corridors, and compartments, this may be difficult to construct. To be discussed.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>10754956</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" s="2" t="n">
+        <v>45397.57430555556</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Lighting fixtures for RM118 Battery Shop and RM118A, 118B battery storages. 
+E-705 C1 and C1E noted LED enclosed and gasketed surface light fixture, but UFC 3-520-05, 2-4.3 Lighting described that "Install battery room lighting fixtures that are pendant or wall mounted, and do not provide a collection point for explosive gases".
+Please consider requirement of UFC3-520-05.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10754989</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" s="2" t="n">
+        <v>45397.58680555555</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Lighting switches located inside of RM118A and RM118B battery storages.
+UFC3-520-05,2-4.3 required that receptacles and lighting switches should be located outside of the battery area.
+Please re-consider about location of the switches of the battery storage area.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>10755028</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" s="2" t="n">
+        <v>45397.59583333333</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Please provide a sink to Battery Shop 118/118A/118B per P-8A POSEIDON FACILITIES REQUIREMENT DOCUMENT, D809-00219-1_Facilities_Rqmts_doc_Re.pdf (Page 74 of 112).</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>10755088</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" s="2" t="n">
+        <v>45397.60902777778</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Please provide emergency eyewash/shower in the battery shop per UFC 3-520-05 STATIONARY AND MISSION BATTERIES, Section 2-5.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>10755123</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Yat Hung Chan</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" s="2" t="n">
+        <v>45397.63819444444</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Keynote #1 says "DOAS UNITS TO BE MOUNTED ON 100 MM CONCRETE PADS ON THE FLOOR."
+Please change the concrete pads height to 150mm.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>10757241</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" s="2" t="n">
+        <v>45398.38958333333</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>RM112 mentioned "HAZMAT" storage.
+Please ask and confirm with the NAVY user what kind of hazmat material will be stored to the RM112.
+Depending on the hazardous materials stored in this room, the NEC 500 series may be applied, such as explosion-proof lighting fixture, receptacle,  and wiring system.
+If the room is covered by the NEC 500 series, please add a description of the explosion-proof specifications to the electrical notes, legends, and drawings.
+Please also provide detailed drawings of explosion proof electrical construction examples.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10757267</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" s="2" t="n">
+        <v>45398.41180555556</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>It is likely that an eyewash/shower will be installed in the battery shop area, but please coordinate with the mech engineer if a receptacle etc. will be required.
+Refer to the UFC3-520-05, 2-5 Emergency facilities.
+If these facilities are activated, please confirm with Navy users and FP engineers to see if emergency calls to the fire station or warning lights are required. However, if these life safety equipment is supported by FP or mech engineer, please consider providing electrical support if necessary.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>10757288</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Naoko Kubota</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" s="2" t="n">
+        <v>45398.43472222222</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>The numbers of structure beam and girder on the takeoff sheet don't match with the drawing S-102 and S-103. And please verify these sizes to match with the drawing S-604. These sm sizes on takeoff sheet don't match with S-604 schedule.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>10757289</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Naoko Kubota</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" s="2" t="n">
+        <v>45398.43472222222</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Please verify the number of columns.  The takeoff sheet shows 9 while the drawing S-101 shows 18. There are 4 different sizes of columns are counted on MII but there is only C1 shows on drawing S-603 concrete column schedule.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>10757291</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Naoko Kubota</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" s="2" t="n">
+        <v>45398.43611111111</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Only 150 thickness concrete slab is listed on the drawing S-602 while 150, 250 and 350 are counted on MII. There is no standard slab and grade listed on takeoff sheet. Please be consistent with the drawing, MII and takeoff-sheet.  And there is also "Concrete slab, Elevated. S3 – 200MM THK" listed under Superstructure/Floor Construction/Floor Decks and Slabs on MII.   Is this second floor slab? If so, please add note for clarification and verify the floor area.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>10757293</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Naoko Kubota</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" s="2" t="n">
+        <v>45398.43888888889</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Please be consistent overall that the number of structural items and their names should match among the takeoff sheet, drawing and MII data.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>10757301</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Naoko Kubota</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" s="2" t="n">
+        <v>45398.44722222222</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>The number of exterior single door count doesn't match between MII and the drawing (21 vs 8).</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>10757302</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Naoko Kubota</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" s="2" t="n">
+        <v>45398.44791666666</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>The exterior Wall thickness shows 300mm on A-101 but MII counts 150mm and 250mm.  the takeoff shows 400mm thickness. And the name on takeoff sheet noted "exterior precast wall" and are they precast not cast-in-place concrete?</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>10757303</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Naoko Kubota</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" s="2" t="n">
+        <v>45398.44861111111</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Please use the same names for "Metal stud Partitions" on MII to match with the drawing A-501 for clarification.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>10757304</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Naoko Kubota</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" s="2" t="n">
+        <v>45398.44930555556</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Where is the exterior hangar door located on the drawing? (the source tag 083416100300)</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>10757305</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Naoko Kubota</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" s="2" t="n">
+        <v>45398.45069444444</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>The sizes and numbers of pile cap listed on takeoff sheet don't match with S-101 and S-602 pile schedule.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>10757486</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Michael Teller</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" s="2" t="n">
+        <v>45398.55625</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Please ensure that any attachments for 01 33 29 are included as well.
+Att A-HPSB checklist
+Att B-Third-Party Certification documents/forms
+The names for these attachments may be tailored as the team sees fit.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>10757491</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Michael Teller</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" s="2" t="n">
+        <v>45398.55763888889</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>FIO - ensure that "S" submittals which support project sustainability HPSB &amp; TPC goals are noted as such in the 01 33 00-B Submittal register for the next design milestone.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>10757515</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Specifications</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sherwin Edquiban</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" s="2" t="n">
+        <v>45398.57430555556</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>For the next submittal, please ensure that the JED cover sheet is used and the information is filled in accordingly.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>10757518</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Architectural</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Michael Teller</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" s="2" t="n">
+        <v>45398.57569444444</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>check General notes, remove references to other installations. (i.e. note #3 YAB, etc.)
+check for consistent drawing sheet references also. i.e. there is currently no A-002 in the set but is referenced in the general notes.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>10757538</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Sherwin Edquiban</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" s="2" t="n">
+        <v>45398.61875</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>If it has not been held already, please coordinate a meeting to discuss/clarify the CLIN/POP sometime before the Intermediate Submittal</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>10757540</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sherwin Edquiban</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" s="2" t="n">
+        <v>45398.62083333333</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Please coordinate the completion of the Construction Memo with Construction and sent to the AE before the Intermediate Submittal.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>10759890</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" s="2" t="n">
+        <v>45399.40486111111</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Accordance with UFC3-490-06 "Elevator" 6-2.1 Hoistway Lighting, please provide hoistway pit lighting minimum 10fc at the pit floor and at a minimum of every 10feet(3m) vertically up the hoistway.
+And also provide two -3way switches inside the elevator hoistway, at a height of 4feer(1.2m) above the top and bottom elevator landings.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>10759902</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" s="2" t="n">
+        <v>45399.41180555556</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Accordance with UFC3-490-06,6-3 elevator hoistway pit, please provide a separate branch circuit supplying power to the hoistway pit sump pump receptacle and also provide the pit GFCI receptacles.
+Please refer to the UFC3-490-06 related section.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>10759918</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Atsushi Nagamine</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" s="2" t="n">
+        <v>45399.41944444444</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Please consider the UFC3-490-06, 6-1.2 and 6-1.2.1, provide elevator disconnecting means on the wall inside the MR and CR, and provide a shunt trip circuit breaker that in case of fire protection sprinkler activated in fire.
+Please confirm the UFC3-490-06, 6-1 Elevator MR, CR and MS.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>10759963</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Steven Mow</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" s="2" t="n">
+        <v>45399.44583333333</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Please ensure that the lead concentrations mentioned in this specification match what's stated in 01 57 19.01 to avoid confusion later.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>10759965</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Steven Mow</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" s="2" t="n">
+        <v>45399.44652777778</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>01 57 19-A applies to Yokota AB, not Kadena. Please remove from the package.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>10763087</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" s="2" t="n">
+        <v>45400.93263888889</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>The PDF of the CWE shows the contingency and the SIOH markup; however, the MII file does not include these.  Please make sure that the MII file also carries these markups as owner markups. Also, the SIOH used should be 7.3%. 8.1% is for O&amp;M projects.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>10763118</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" s="2" t="n">
+        <v>45400.94791666666</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>On the plumbing fixture schedule the sinks and lavatories are not showing a sanitary or vent size.  Please include.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>10763129</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" s="2" t="n">
+        <v>45400.95208333333</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>I am noticing on the plumbing drawings there is currently no continuation lines to show where Zone B ends and Zone D continues.  I can do it per the column lines but typically there are continuation lines shown.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>10763138</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" s="2" t="n">
+        <v>45400.95625</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>On P-100D it appears that the Radon system is connected with a Wye to the Sanitary.  Please correct.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>10763164</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" s="2" t="n">
+        <v>45400.97291666667</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>The plumbing plans need to be corrected.  The foundation plans would show the sanitary underneath the slab that connect 1st floor fixtures and drains and cleanouts, and the second floor plans would show the sanitary piping and connections for all of the plumbing items on the 2nd floor.  The first floor plans for sanitary would only show the risers; however the 1st floor plans provided are showing sanitary piping.  The first floor and second floor sanitary plans would show vent piping.  These plans are not following the norm.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>10763217</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" s="2" t="n">
+        <v>45400.99791666667</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>The sanitary sewer piping should be separated between PVC bell and spigot for the below foundation piping and Sch 40 PVC piping for the above ground piping.  The current estimate has them lumped together.  Also, for the below ground piping, the mechanical contractor will excavate for the sanitary piping, and it needs to be included in the estimate.  The current spot check of below foundation sanitary piping is 49 m of 80mm pipe, 6 m of 50 mm pipe, and 114 m of 100 mm pipe. I also have for above ground sanitary piping: 11 m of 50 mm pipe, 23 m of 80 mm pipe, and 4 meters of 100mm pipe.  I think your current quantity of 100mm pipe is accurate given the current stage of the design and including waste and typical lengths bought. Please also include waste and round to typical lengths bought for the other sizes.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>10763269</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" s="2" t="n">
+        <v>45401.00902777778</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>The ruler / scale on the bottom of P-102 is a 1:50 scale and should be a 1:100 scale.</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>10763303</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" s="2" t="n">
+        <v>45401.01319444444</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Why is there insulation included in the estimate for sanitary piping?</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>10763318</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" s="2" t="n">
+        <v>45401.01388888889</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Please include a VTR assembly in the estimate for the vent chimney that goes through the roof with the protective boot.</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>10763324</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" s="2" t="n">
+        <v>45401.01458333333</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>The drawings are showing a 100mm VTR which is larger than I am typically used to seeing.  I would typically see an 80mm VTR.  Please verify sizing.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>10763342</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Plumbing</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" s="2" t="n">
+        <v>45401.02013888889</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>The current water service entrance detail and the plumbing fixture schedule drawings list 2 backflow preventers (one 50mm and one 80mm).  The current plans are only showing BFP-1 (80 mm).  Please correct.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>10763346</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" s="2" t="n">
+        <v>45401.02083333334</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Please include the 50 mm backflow preventer listed on the schedule on drawings P-601 and also shown on the water service entrance drawing P-502.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>10763402</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" s="2" t="n">
+        <v>45401.03402777778</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Please include the 1,000 liter air receiver in the estimate.  I couldn't find it.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>10764259</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" s="2" t="n">
+        <v>45401.18472222222</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Please include the compressed air outlets shown on the drawings but not picked up in the estimate.  You may want to include a few extra due to the current design stage. A previous estimate for the district had the outlet assemblies at roughly 57,000 yen per piece and 2 hours each.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>10764294</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" s="2" t="n">
+        <v>45401.19027777778</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Please update the labor rates to the new MLIT published rates.  Please see attached.  Spot checked the plumber and carpenter and they were low.</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10764515</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" s="2" t="n">
+        <v>45401.21597222222</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>The current estimate includes one scroll type air cooled chiller and it was bumped up to a 220 KW chiller.  The current schedule shows 2 122.5KW air cooled chillers.  Please review and correct estimate as needed.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>10764541</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" s="2" t="n">
+        <v>45401.22083333333</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Please include approximately 20 LF of condensate piping to floor drain from each Air Handling unit.  Schedule 80 pvc.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>10764890</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" s="2" t="n">
+        <v>45401.29583333333</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Please include under your Personnel Management &amp; Support Staff, special inspectors.  You will need to include structural, mechanical, fire protection, electrical, and architectural at the minimum.  Each of these would probably be around 6 months or 26 weeks at a typical field engineer.  The total for another project of the same duration and size was roughly 100 million yen for the special inspectors.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>10764892</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" s="2" t="n">
+        <v>45401.29652777778</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Estimator Judgment -  I would include one more administrative clerk for this project.</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>10764893</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" s="2" t="n">
+        <v>45401.29791666667</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Under your construction facilities, please adjust the office supplies to roughly 20,000 yen per month.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>10764895</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" s="2" t="n">
+        <v>45401.29930555556</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>The laptop computer expenses under the construction facilities appear to be in dollars and not in yen since it says 1,700 each.  Please adjust the pricing to yen, and supply a computer for the PM, Super, SSHO, and QCM.</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>10764905</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" s="2" t="n">
+        <v>45401.30486111111</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>There are issues with some line items within the Japan Database that we provide.  Please check the estimate to ensure prices are in yen, most of the time these errors are easy to pick out.  In particular under the mobilization costs, it appears that the equipment costs did not convert over and are low by a factor of ten.  Example the pickup trucks are showing as $45 per hour, when they should be more like 5,000 yen per hour.</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>10765151</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" s="2" t="n">
+        <v>45401.41944444444</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Please look at the major subcontractors on the project. Currently a 4% markup is being used for FOOH and I anticipate that this would be low.  If we assume at a minimum that a major subcontractor (i.e. HVAC, Electrical, etc) has a superintendent and a quality control manager / Engineer on the job for say 6 months.  The costs would be roughly 6 months x 2 personnel x approx 1 million yen. This would equate to 12 million yen.  This does not account for their trailer expenses, supplies, truck expenses, possible admin/clerk, etc.  I would expect it may be in the range of 20 million yen in FOOH expenses, or about 8%.  Please review and adjust as needed.</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>10765161</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" s="2" t="n">
+        <v>45401.42847222222</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Please review the quantity of VAV boxes in the estimate.  The schedule shows 22 and the estimate has 44.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>10765195</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" s="2" t="n">
+        <v>45401.45486111111</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>What is included under the special costs?  Is this PCAS, cybersecurity, and cybersecurity commissioning? If it is can you separate these costs out under this folder.  For cybersecurity there are typically 4 platforms that can be secured.  How many platforms are we anticipating on this project, and what allowance is included?</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>10765196</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Cost Engineering</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Simon Jackson</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" s="2" t="n">
+        <v>45401.45625</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Is there an allowance for sustainability and Leed which is typically around 2% of the cost of the facility, or will this facility not have any of these measures?</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>10770794</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" s="2" t="n">
+        <v>45405.61041666667</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Hydraulic calculations "Notes" "indicate that an additional 1,900 LPM demand has been included at the direction of the Base Personnel to account for an industrial parts washer that may be in use during sprinkler operation." Include this information in the FP design analysis for the water supply requirements.</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>10770795</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" s="2" t="n">
+        <v>45405.61180555556</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Section 7.4.1 states that a fire pump is planned to accommodate the pressure differential between what is supplied and what will be required. Section 7.4.9 states a fire pump will not be required. Please clarify.</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>10770796</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" s="2" t="n">
+        <v>45405.61180555556</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Section 7.3.7 refers to IFC 3-600-01. Please verify.</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>10770797</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" s="2" t="n">
+        <v>45405.61180555556</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Section 7.2.6 states the permitted allowable area is 4,633 SM and provided 4,633 SM. Verify the actual provide building area and include the Frontage Increase Factor from IBC Table 506.3.</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>10770798</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" s="2" t="n">
+        <v>45405.6125</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>UFC 3-520-05 Stationary and Mission Batteries is listed in the references as a applicable document. Section 7.3.9 Batteries refers to NFPA 855 as an applicable standard. Verify the applicable requirements are included in this section.</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>10770799</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" s="2" t="n">
+        <v>45405.6125</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Section 7.2.9 states a 2-hour separation is required for the Battery Storage area. Is this a requirement from UFC 3-520-05 or NFPA 855? Provide the code reference in the design analysis.</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>10770800</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" s="2" t="n">
+        <v>45405.61944444444</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Provide the code reference for the separation requirement for the paint booth and Aviation Life Support O2 Room in Section 7.2.9.</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>10773028</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" s="2" t="n">
+        <v>45406.375</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>A fire alarm input/output matrix is not provided on the plans.</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>10773034</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" s="2" t="n">
+        <v>45406.37638888889</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Fire alarm/MNS wiring diagram not provided on the plans.</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>10773077</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" s="2" t="n">
+        <v>45406.39375</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>UFC 4-021-01 section 4-6.2.1 requires LED text signs to be provided over the door to each egress stairwell and over (or adjacent to the substantial means of egress from the level of discharge.  Review the MNS text sign locations are in accordance with this requirement.</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>10773091</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" s="2" t="n">
+        <v>45406.40555555555</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Plans show smoke detectors in 118A &amp; 118B battery rooms. UFC 3-520-05 section 2-6 does not require smoke detection. Please address and clarify the requirement for smoke detection for these battery rooms in the Design Analysis.</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>10773117</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" s="2" t="n">
+        <v>45406.41388888889</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Plans show the MNS/LOC in the Security Room 101 and second floor corridor.. UFC 4-021-01 section 4-5.1 requires the LOC to be located to allow emergency response forces and building occupants access to the MSN and originate messages in emergency situations. For Navy projects no more than one LOC should be provided.</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>10773181</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" s="2" t="n">
+        <v>45406.46875</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Plans show a backflow preventer only in Room 122. No fire pump is shown. Documents including Design analysis, Plan notes, and Specs mention fire pump.</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>10773218</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" s="2" t="n">
+        <v>45406.52291666667</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Design analysis section 7.5.3 states that CO detectors will not be provided for this project. Please delete CO detector symbol for the drawing Legend.</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>10773229</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" s="2" t="n">
+        <v>45406.58402777778</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Clarify conflict regarding the fire pump. Water Supply &amp; Summary of FP Features notes indicate a fire pump will be provided. Fire Pump notes indicate no fire pump will be required.</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>10773243</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" s="2" t="n">
+        <v>45406.60208333333</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Exit sign not shown on second floor East exit Stairwell.</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>10773259</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" s="2" t="n">
+        <v>45406.63611111111</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Parts Storage Room 113 has two doors and is a large size room. Recommend providing an exit sign at the door leading to the exterior.</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>10773265</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Fire Protection/Life Safety</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Tony Blackburn</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" s="2" t="n">
+        <v>45406.65347222222</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Plans show the post indicating valve (PIV) between the doors of the Fire Protection Room 122 and Elevator Equipment Room 124. Review the location of the PIV is in accordance with NFPA 24 para 6.2.9 and provides proper access, clearances, and protection from mechanical damage.</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>10788191</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Architectural</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Gregory Church</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" s="2" t="n">
+        <v>45414.40972222222</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>February Concept submittal shows roof insulation above slab. April resubmittal shows roof insulation below slab. As shown using Japanese insulation this does not meet US fire/flame spread rating. Using US insulation will increase procurement time and construction cost. Propose alternative design that meets US ratings that is most cost effective</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
